--- a/address_data.xlsx
+++ b/address_data.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\user\Desktop\py\找完整地址\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B0F5B-66E4-43FF-96B8-0D5AFF9B64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>查詢地址</t>
+  </si>
+  <si>
+    <t>完整地址</t>
+  </si>
+  <si>
+    <t>不含鄰的地址</t>
+  </si>
+  <si>
+    <t>中壢區聖德路二段395及401號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里007鄰聖德路二段395號及401號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里聖德路二段395號及401號</t>
+  </si>
+  <si>
+    <t>中壢區同慶路255號(1樓)</t>
+  </si>
+  <si>
+    <t>桃園市中壢區仁福里014鄰同慶路255號號(1樓)</t>
+  </si>
+  <si>
+    <t>桃園市中壢區仁福里同慶路255號號(1樓)</t>
+  </si>
+  <si>
+    <t>中壢區仁愛路41、43號(1樓)</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中原里010鄰仁愛路41號、43號(1樓)</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中原里仁愛路41號、43號(1樓)</t>
+  </si>
+  <si>
+    <t>中壢區延平路261號9樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區新街里005鄰延平路261號號9樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區新街里延平路261號號9樓</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,110 +435,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>查詢地址</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>完整地址</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>不含鄰的地址</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>中壢區聖德路二段395及401號</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>桃園市中壢區月眉里007鄰聖德路二段395號及401號</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>桃園市中壢區月眉里聖德路二段395號及401號</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>中壢區同慶路255號(1樓)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>桃園市中壢區仁福里014鄰同慶路255號號(1樓)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>桃園市中壢區仁福里同慶路255號號(1樓)</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>中壢區仁愛路41、43號(1樓)</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>桃園市中壢區中原里010鄰仁愛路41號、43號(1樓)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>桃園市中壢區中原里仁愛路41號、43號(1樓)</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>中壢區延平路261號9樓</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>桃園市中壢區新街里005鄰延平路261號號9樓</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>桃園市中壢區新街里延平路261號號9樓</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/address_data.xlsx
+++ b/address_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\user\Desktop\py\找完整地址\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhand\Downloads\addressfinder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B0F5B-66E4-43FF-96B8-0D5AFF9B64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8805719-9AA1-4252-A77C-676EF2BD7B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>查詢地址</t>
   </si>
@@ -31,40 +31,16 @@
     <t>不含鄰的地址</t>
   </si>
   <si>
-    <t>中壢區聖德路二段395及401號</t>
-  </si>
-  <si>
-    <t>桃園市中壢區月眉里007鄰聖德路二段395號及401號</t>
-  </si>
-  <si>
-    <t>桃園市中壢區月眉里聖德路二段395號及401號</t>
+    <t>中壢區聖德路2段395及401號</t>
   </si>
   <si>
     <t>中壢區同慶路255號(1樓)</t>
   </si>
   <si>
-    <t>桃園市中壢區仁福里014鄰同慶路255號號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區仁福里同慶路255號號(1樓)</t>
-  </si>
-  <si>
     <t>中壢區仁愛路41、43號(1樓)</t>
   </si>
   <si>
-    <t>桃園市中壢區中原里010鄰仁愛路41號、43號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區中原里仁愛路41號、43號(1樓)</t>
-  </si>
-  <si>
     <t>中壢區延平路261號9樓</t>
-  </si>
-  <si>
-    <t>桃園市中壢區新街里005鄰延平路261號號9樓</t>
-  </si>
-  <si>
-    <t>桃園市中壢區新街里延平路261號號9樓</t>
   </si>
 </sst>
 </file>
@@ -439,17 +415,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,53 +436,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/address_data.xlsx
+++ b/address_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\user\Desktop\py\找完整地址\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856B0F5B-66E4-43FF-96B8-0D5AFF9B64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B52252D-3BEC-4303-B375-15A596C3131B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>查詢地址</t>
   </si>
@@ -31,40 +31,221 @@
     <t>不含鄰的地址</t>
   </si>
   <si>
-    <t>中壢區聖德路二段395及401號</t>
-  </si>
-  <si>
-    <t>桃園市中壢區月眉里007鄰聖德路二段395號及401號</t>
-  </si>
-  <si>
-    <t>桃園市中壢區月眉里聖德路二段395號及401號</t>
-  </si>
-  <si>
-    <t>中壢區同慶路255號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區仁福里014鄰同慶路255號號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區仁福里同慶路255號號(1樓)</t>
-  </si>
-  <si>
-    <t>中壢區仁愛路41、43號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區中原里010鄰仁愛路41號、43號(1樓)</t>
-  </si>
-  <si>
-    <t>桃園市中壢區中原里仁愛路41號、43號(1樓)</t>
-  </si>
-  <si>
-    <t>中壢區延平路261號9樓</t>
-  </si>
-  <si>
-    <t>桃園市中壢區新街里005鄰延平路261號號9樓</t>
-  </si>
-  <si>
-    <t>桃園市中壢區新街里延平路261號號9樓</t>
+    <t>桃園市中壢區後寮一路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區至善里021鄰後寮一路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區至善里後寮一路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區榮民路128號6樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區自強里020鄰榮民路128號6樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區自強里榮民路128號6樓</t>
+  </si>
+  <si>
+    <t>查詢失敗</t>
+  </si>
+  <si>
+    <t>桃園市新屋區福洲一街40號1樓</t>
+  </si>
+  <si>
+    <t>桃園市新屋區頭洲里009鄰福洲一街40號1樓</t>
+  </si>
+  <si>
+    <t>桃園市新屋區頭洲里福洲一街40號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中山東路四段26號5樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區龍昌里015鄰中山東路四段26號5樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區龍昌里中山東路四段26號5樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區瑞溪路二段156號2樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區瑞坪里035鄰瑞溪路二段156號2樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區瑞坪里瑞溪路二段156號2樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕成南路280巷15號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕新里006鄰裕成南路280巷15號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕新里裕成南路280巷15號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區延平路98號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區幸福里002鄰延平路98號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區幸福里延平路98號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區普義路171號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區普義里004鄰普義路171號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區普義里普義路171號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕成南路313、315號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕新里007鄰裕成南路313號、315號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區裕新里裕成南路313號、315號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區中山北路一段362號2至3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區中山里017鄰中山北路一段362號2至3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區中山里中山北路一段362號2至3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區延平路219號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區新街里006鄰延平路219號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區新街里延平路219號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區立和路58巷66號1樓、68號1-4樓、70號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區普義里002鄰立和路58巷66號1樓、68號1-4樓、70號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區普義里立和路58巷66號1樓、68號1-4樓、70號1樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區中正路138號2、3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區富岡里013鄰中正路138號2、3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區富岡里中正路138號2、3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區大模街10號2樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區楊梅里005鄰大模街10號2樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區楊梅里大模街10號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區延平路326號3樓、326之1號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區興南里006鄰延平路326號3樓、326之1號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區興南里延平路326號3樓、326之1號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區成功路146號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區內壢里021鄰成功路146號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區內壢里成功路146號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區高鐵北路二段1號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區青埔里001鄰高鐵北路二段1號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區青埔里高鐵北路二段1號</t>
+  </si>
+  <si>
+    <t>桃園市中壢區明德路60號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區舊明里008鄰明德路60號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區舊明里明德路60號3樓</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區新農街6號3樓之1</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區楊江里011鄰新農街6號3樓之1</t>
+  </si>
+  <si>
+    <t>桃園市楊梅區楊江里新農街6號3樓之1</t>
+  </si>
+  <si>
+    <t>桃園市中壢區復興路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區石頭里013鄰復興路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區石頭里復興路161號3樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中北路二段211號4樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區東興里002鄰中北路二段211號4樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區東興里中北路二段211號4樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區崇德三路250號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里016鄰崇德三路250號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里崇德三路250號1樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉路一段250號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里015鄰月眉路一段250號2樓</t>
+  </si>
+  <si>
+    <t>桃園市中壢區月眉里月眉路一段250號2樓</t>
+  </si>
+  <si>
+    <t>桃園市新屋區中華路214號1-2樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市新屋區新屋里中華路214號</t>
   </si>
 </sst>
 </file>
@@ -436,17 +617,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,24 +665,244 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
